--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T19:05:31+00:00</t>
+    <t>2025-06-19T19:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T19:58:19+00:00</t>
+    <t>2025-06-20T06:32:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T06:32:13+00:00</t>
+    <t>2025-06-20T06:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T06:38:10+00:00</t>
+    <t>2025-06-20T10:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T10:52:57+00:00</t>
+    <t>2025-06-20T10:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T10:58:39+00:00</t>
+    <t>2025-06-20T11:10:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T11:10:44+00:00</t>
+    <t>2025-06-20T11:56:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T11:56:46+00:00</t>
+    <t>2025-06-20T12:07:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:07:13+00:00</t>
+    <t>2025-06-20T12:34:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:34:45+00:00</t>
+    <t>2025-06-20T12:45:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T12:45:24+00:00</t>
+    <t>2025-06-20T15:01:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="678">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:27:23+00:00</t>
+    <t>2025-06-20T16:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>SCT</t>
+  </si>
+  <si>
+    <t>Snomed CT term to identify NEWS2 score observation</t>
   </si>
   <si>
     <t>Observation.code.coding:SCT.id</t>
@@ -1447,6 +1450,9 @@
 </t>
   </si>
   <si>
+    <t>Reference to the author of the observation</t>
+  </si>
+  <si>
     <t>Reference to the person, role or team that performed the observation, identified by Norwegian national id number (Fødselsnummer or DNR).
 A link to a resource representing the person or the group to whom the medication will be given.
 VKP always references a Practitioner Resource using a norwegian national id number (Fødselsnummer or DNR) in a logical identifier in the practitioner.identifier element.
@@ -1558,6 +1564,9 @@
   <si>
     <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
+  </si>
+  <si>
+    <t>Reference to the responsible organization (dataansvarlig)</t>
   </si>
   <si>
     <t>Reference to the organization responsible for the information (opprinnelig dataansvarlig virksomhet)</t>
@@ -4697,7 +4706,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>82</v>
@@ -5787,7 +5796,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>82</v>
@@ -5805,7 +5814,7 @@
         <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>231</v>
@@ -5898,7 +5907,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>242</v>
@@ -6016,7 +6025,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>244</v>
@@ -6136,7 +6145,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>246</v>
@@ -6184,7 +6193,7 @@
         <v>83</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>83</v>
@@ -6258,7 +6267,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>256</v>
@@ -6378,7 +6387,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>264</v>
@@ -6424,7 +6433,7 @@
         <v>83</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>83</v>
@@ -6498,7 +6507,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>272</v>
@@ -6618,7 +6627,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>280</v>
@@ -6740,13 +6749,13 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>228</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>83</v>
@@ -6864,7 +6873,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>242</v>
@@ -6982,7 +6991,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>244</v>
@@ -7102,7 +7111,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>246</v>
@@ -7147,7 +7156,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>83</v>
@@ -7224,7 +7233,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>256</v>
@@ -7344,7 +7353,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>264</v>
@@ -7464,7 +7473,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>272</v>
@@ -7584,7 +7593,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>280</v>
@@ -7706,10 +7715,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7735,16 +7744,16 @@
         <v>217</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7793,7 +7802,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7814,10 +7823,10 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7828,10 +7837,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7854,19 +7863,19 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7915,7 +7924,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7930,19 +7939,19 @@
         <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -7950,10 +7959,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8068,10 +8077,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8188,10 +8197,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8217,13 +8226,13 @@
         <v>217</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8273,7 +8282,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -8282,7 +8291,7 @@
         <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>106</v>
@@ -8308,10 +8317,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8337,13 +8346,13 @@
         <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8369,13 +8378,13 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
@@ -8393,7 +8402,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8428,10 +8437,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8457,13 +8466,13 @@
         <v>152</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8513,7 +8522,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8537,7 +8546,7 @@
         <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8548,10 +8557,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8666,10 +8675,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8786,10 +8795,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8815,16 +8824,16 @@
         <v>114</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8852,10 +8861,10 @@
         <v>183</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>83</v>
@@ -8873,7 +8882,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8897,7 +8906,7 @@
         <v>137</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8908,10 +8917,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8937,16 +8946,16 @@
         <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8971,13 +8980,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8995,7 +9004,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -9016,10 +9025,10 @@
         <v>83</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>83</v>
@@ -9030,10 +9039,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9059,16 +9068,16 @@
         <v>108</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -9081,7 +9090,7 @@
         <v>83</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>83</v>
@@ -9097,7 +9106,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>83</v>
@@ -9115,7 +9124,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -9136,10 +9145,10 @@
         <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -9150,10 +9159,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9179,13 +9188,13 @@
         <v>217</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9199,7 +9208,7 @@
         <v>83</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>83</v>
@@ -9235,7 +9244,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -9256,10 +9265,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -9270,10 +9279,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9296,13 +9305,13 @@
         <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9353,7 +9362,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9374,10 +9383,10 @@
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -9388,10 +9397,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9414,16 +9423,16 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9473,7 +9482,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9494,10 +9503,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>
@@ -9508,10 +9517,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9537,13 +9546,13 @@
         <v>217</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9593,7 +9602,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9628,10 +9637,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9654,16 +9663,16 @@
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9713,7 +9722,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9737,10 +9746,10 @@
         <v>212</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>83</v>
@@ -9748,14 +9757,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9774,19 +9783,19 @@
         <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9835,7 +9844,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9850,19 +9859,19 @@
         <v>106</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>83</v>
@@ -9870,14 +9879,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9896,19 +9905,19 @@
         <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9957,7 +9966,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9972,19 +9981,19 @@
         <v>106</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
@@ -9992,10 +10001,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10018,16 +10027,16 @@
         <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10077,7 +10086,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -10098,13 +10107,13 @@
         <v>83</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>83</v>
@@ -10112,10 +10121,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10138,17 +10147,17 @@
         <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>83</v>
@@ -10185,7 +10194,7 @@
         <v>83</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
@@ -10195,7 +10204,7 @@
         <v>226</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -10210,19 +10219,19 @@
         <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>83</v>
@@ -10230,13 +10239,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
@@ -10258,17 +10267,17 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>83</v>
@@ -10317,7 +10326,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -10332,19 +10341,19 @@
         <v>106</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10352,10 +10361,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10470,10 +10479,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10590,10 +10599,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10619,13 +10628,13 @@
         <v>217</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10675,7 +10684,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10684,7 +10693,7 @@
         <v>94</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>106</v>
@@ -10710,10 +10719,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10739,13 +10748,13 @@
         <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10771,13 +10780,13 @@
         <v>83</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>83</v>
@@ -10795,7 +10804,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10830,10 +10839,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10859,13 +10868,13 @@
         <v>152</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10915,7 +10924,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10939,7 +10948,7 @@
         <v>83</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>83</v>
@@ -10950,10 +10959,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11068,10 +11077,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11188,10 +11197,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11217,16 +11226,16 @@
         <v>114</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -11254,10 +11263,10 @@
         <v>183</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>83</v>
@@ -11275,7 +11284,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -11299,7 +11308,7 @@
         <v>137</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -11310,10 +11319,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11339,16 +11348,16 @@
         <v>192</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -11373,13 +11382,13 @@
         <v>83</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>83</v>
@@ -11397,7 +11406,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11418,10 +11427,10 @@
         <v>83</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>83</v>
@@ -11432,10 +11441,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11461,16 +11470,16 @@
         <v>108</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11483,7 +11492,7 @@
         <v>83</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>83</v>
@@ -11499,7 +11508,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11517,7 +11526,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11538,10 +11547,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>
@@ -11552,10 +11561,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11581,13 +11590,13 @@
         <v>217</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11601,7 +11610,7 @@
         <v>83</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>83</v>
@@ -11637,7 +11646,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11658,10 +11667,10 @@
         <v>83</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>83</v>
@@ -11672,10 +11681,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11698,13 +11707,13 @@
         <v>95</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11755,7 +11764,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11776,10 +11785,10 @@
         <v>83</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>83</v>
@@ -11790,10 +11799,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11816,16 +11825,16 @@
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11875,7 +11884,7 @@
         <v>83</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -11896,10 +11905,10 @@
         <v>83</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>83</v>
@@ -11910,10 +11919,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11939,13 +11948,13 @@
         <v>217</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11995,7 +12004,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -12030,13 +12039,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -12058,17 +12067,17 @@
         <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>83</v>
@@ -12117,7 +12126,7 @@
         <v>83</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -12132,19 +12141,19 @@
         <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>83</v>
@@ -12152,10 +12161,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12270,10 +12279,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12390,10 +12399,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12419,13 +12428,13 @@
         <v>217</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12475,7 +12484,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12484,7 +12493,7 @@
         <v>94</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>106</v>
@@ -12510,10 +12519,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12539,13 +12548,13 @@
         <v>108</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12571,13 +12580,13 @@
         <v>83</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>83</v>
@@ -12595,7 +12604,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -12630,10 +12639,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12659,13 +12668,13 @@
         <v>152</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12715,7 +12724,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -12739,7 +12748,7 @@
         <v>83</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>83</v>
@@ -12750,10 +12759,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12868,10 +12877,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12988,10 +12997,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13017,16 +13026,16 @@
         <v>114</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>83</v>
@@ -13054,10 +13063,10 @@
         <v>183</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>83</v>
@@ -13075,7 +13084,7 @@
         <v>83</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -13099,7 +13108,7 @@
         <v>137</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>83</v>
@@ -13110,10 +13119,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13139,16 +13148,16 @@
         <v>192</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>83</v>
@@ -13173,13 +13182,13 @@
         <v>83</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>83</v>
@@ -13197,7 +13206,7 @@
         <v>83</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -13218,10 +13227,10 @@
         <v>83</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>83</v>
@@ -13232,10 +13241,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13261,16 +13270,16 @@
         <v>108</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>83</v>
@@ -13283,7 +13292,7 @@
         <v>83</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>83</v>
@@ -13319,7 +13328,7 @@
         <v>83</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -13340,10 +13349,10 @@
         <v>83</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>83</v>
@@ -13354,10 +13363,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13383,13 +13392,13 @@
         <v>217</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13403,7 +13412,7 @@
         <v>83</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>83</v>
@@ -13439,7 +13448,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -13460,10 +13469,10 @@
         <v>83</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>83</v>
@@ -13474,10 +13483,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13500,13 +13509,13 @@
         <v>95</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13557,7 +13566,7 @@
         <v>83</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -13578,10 +13587,10 @@
         <v>83</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>83</v>
@@ -13592,10 +13601,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13618,16 +13627,16 @@
         <v>95</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13677,7 +13686,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13698,10 +13707,10 @@
         <v>83</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>83</v>
@@ -13712,10 +13721,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13741,13 +13750,13 @@
         <v>217</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13797,7 +13806,7 @@
         <v>83</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13832,10 +13841,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13858,19 +13867,19 @@
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13919,7 +13928,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13928,7 +13937,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13937,27 +13946,27 @@
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13983,16 +13992,16 @@
         <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14017,13 +14026,13 @@
         <v>83</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -14041,7 +14050,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -14050,7 +14059,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14065,7 +14074,7 @@
         <v>137</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14076,14 +14085,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14105,16 +14114,16 @@
         <v>192</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14139,13 +14148,13 @@
         <v>83</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14163,7 +14172,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14181,27 +14190,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14224,19 +14233,19 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14285,7 +14294,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14306,10 +14315,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14320,10 +14329,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14349,13 +14358,13 @@
         <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14384,10 +14393,10 @@
         <v>207</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14405,7 +14414,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14423,27 +14432,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14469,16 +14478,16 @@
         <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14506,10 +14515,10 @@
         <v>207</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14527,7 +14536,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14548,10 +14557,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14562,10 +14571,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14588,16 +14597,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14647,7 +14656,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14665,27 +14674,27 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14708,16 +14717,16 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14767,7 +14776,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14785,27 +14794,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14828,19 +14837,19 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14889,7 +14898,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14901,7 +14910,7 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>83</v>
@@ -14910,10 +14919,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14924,10 +14933,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15042,10 +15051,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15162,14 +15171,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15191,10 +15200,10 @@
         <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>143</v>
@@ -15249,7 +15258,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15284,10 +15293,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15310,13 +15319,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15367,7 +15376,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15376,7 +15385,7 @@
         <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15388,10 +15397,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15402,10 +15411,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15428,13 +15437,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15485,16 +15494,16 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI108" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>106</v>
@@ -15506,10 +15515,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15520,10 +15529,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15549,16 +15558,16 @@
         <v>192</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15586,10 +15595,10 @@
         <v>118</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>83</v>
@@ -15607,7 +15616,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15625,13 +15634,13 @@
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15642,10 +15651,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15671,16 +15680,16 @@
         <v>192</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
@@ -15708,10 +15717,10 @@
         <v>207</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
@@ -15729,7 +15738,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15747,13 +15756,13 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15764,10 +15773,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15790,17 +15799,17 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15849,7 +15858,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15873,7 +15882,7 @@
         <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15884,10 +15893,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15913,10 +15922,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15967,7 +15976,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15988,10 +15997,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16002,10 +16011,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16028,16 +16037,16 @@
         <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16087,7 +16096,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16108,10 +16117,10 @@
         <v>83</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -16122,10 +16131,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16148,16 +16157,16 @@
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16207,7 +16216,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16228,10 +16237,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16242,10 +16251,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16268,19 +16277,19 @@
         <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16329,7 +16338,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16350,10 +16359,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16364,10 +16373,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16482,10 +16491,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16602,14 +16611,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16631,10 +16640,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16689,7 +16698,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16724,10 +16733,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16753,13 +16762,13 @@
         <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>206</v>
@@ -16811,7 +16820,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>94</v>
@@ -16829,7 +16838,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>212</v>
@@ -16846,10 +16855,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16872,19 +16881,19 @@
         <v>95</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16933,7 +16942,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16951,27 +16960,27 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16997,16 +17006,16 @@
         <v>192</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -17031,13 +17040,13 @@
         <v>83</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -17055,7 +17064,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17064,7 +17073,7 @@
         <v>94</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>106</v>
@@ -17079,7 +17088,7 @@
         <v>137</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17090,14 +17099,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17119,16 +17128,16 @@
         <v>192</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17153,13 +17162,13 @@
         <v>83</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17177,7 +17186,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17195,27 +17204,27 @@
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17241,16 +17250,16 @@
         <v>84</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17299,7 +17308,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17320,10 +17329,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:50:39+00:00</t>
+    <t>2025-06-20T16:59:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4836,7 +4836,7 @@
         <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>83</v>
@@ -6768,7 +6768,7 @@
         <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T16:59:22+00:00</t>
+    <t>2025-06-20T17:02:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:02:13+00:00</t>
+    <t>2025-06-20T17:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="679">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:06:30+00:00</t>
+    <t>2025-06-20T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1600,6 +1600,9 @@
   </si>
   <si>
     <t>Observation.performer:organization.identifier.system</t>
+  </si>
+  <si>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-performer-organization-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer:organization.identifier.value</t>
@@ -2503,7 +2506,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="50.453125" customWidth="true" bestFit="true"/>
@@ -13304,13 +13307,11 @@
         <v>83</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>83</v>
+        <v>504</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13363,7 +13364,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>482</v>
@@ -13483,7 +13484,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>484</v>
@@ -13601,7 +13602,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>486</v>
@@ -13721,7 +13722,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>488</v>
@@ -13841,10 +13842,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13867,19 +13868,19 @@
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13928,7 +13929,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13937,7 +13938,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13946,27 +13947,27 @@
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13992,16 +13993,16 @@
         <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14029,10 +14030,10 @@
         <v>341</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -14050,7 +14051,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -14059,7 +14060,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14074,7 +14075,7 @@
         <v>137</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14085,14 +14086,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14114,16 +14115,16 @@
         <v>192</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14151,10 +14152,10 @@
         <v>341</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14172,7 +14173,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14190,27 +14191,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14233,19 +14234,19 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14294,7 +14295,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14315,10 +14316,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14329,10 +14330,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14358,13 +14359,13 @@
         <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14393,10 +14394,10 @@
         <v>207</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14414,7 +14415,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14432,27 +14433,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14478,16 +14479,16 @@
         <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14515,10 +14516,10 @@
         <v>207</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14536,7 +14537,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14557,10 +14558,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14571,10 +14572,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14597,16 +14598,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14656,7 +14657,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14674,27 +14675,27 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14717,16 +14718,16 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14776,7 +14777,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14794,27 +14795,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14837,19 +14838,19 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14898,7 +14899,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14910,7 +14911,7 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>83</v>
@@ -14919,10 +14920,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14933,10 +14934,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15051,10 +15052,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15171,14 +15172,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15200,10 +15201,10 @@
         <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>143</v>
@@ -15258,7 +15259,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15293,10 +15294,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15319,13 +15320,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15376,7 +15377,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15385,7 +15386,7 @@
         <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15397,10 +15398,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15411,10 +15412,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15437,13 +15438,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15494,7 +15495,7 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15503,7 +15504,7 @@
         <v>94</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>106</v>
@@ -15515,10 +15516,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15529,10 +15530,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15558,16 +15559,16 @@
         <v>192</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15595,10 +15596,10 @@
         <v>118</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>83</v>
@@ -15616,7 +15617,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15634,13 +15635,13 @@
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15651,10 +15652,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15680,16 +15681,16 @@
         <v>192</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
@@ -15717,10 +15718,10 @@
         <v>207</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
@@ -15738,7 +15739,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15756,13 +15757,13 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15773,10 +15774,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15799,17 +15800,17 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15858,7 +15859,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15882,7 +15883,7 @@
         <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15893,10 +15894,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15922,10 +15923,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15976,7 +15977,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15997,10 +15998,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16011,10 +16012,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16037,16 +16038,16 @@
         <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16096,7 +16097,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16117,10 +16118,10 @@
         <v>83</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -16131,10 +16132,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16157,16 +16158,16 @@
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16216,7 +16217,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16237,10 +16238,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16251,10 +16252,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16277,19 +16278,19 @@
         <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16338,7 +16339,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16359,10 +16360,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16373,10 +16374,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16491,10 +16492,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16611,14 +16612,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16640,10 +16641,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16698,7 +16699,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16733,10 +16734,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16762,13 +16763,13 @@
         <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>206</v>
@@ -16820,7 +16821,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>94</v>
@@ -16838,7 +16839,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>212</v>
@@ -16855,10 +16856,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16881,19 +16882,19 @@
         <v>95</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16942,7 +16943,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16960,27 +16961,27 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17006,16 +17007,16 @@
         <v>192</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -17043,10 +17044,10 @@
         <v>341</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -17064,7 +17065,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17073,7 +17074,7 @@
         <v>94</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>106</v>
@@ -17088,7 +17089,7 @@
         <v>137</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17099,14 +17100,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17128,16 +17129,16 @@
         <v>192</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17165,10 +17166,10 @@
         <v>341</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17186,7 +17187,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17204,27 +17205,27 @@
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17250,16 +17251,16 @@
         <v>84</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17308,7 +17309,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17329,10 +17330,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:15:26+00:00</t>
+    <t>2025-06-20T17:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="678">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:20:15+00:00</t>
+    <t>2025-06-20T17:28:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1422,10 +1422,6 @@
   </si>
   <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:type}
-</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -10197,7 +10193,7 @@
         <v>83</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>450</v>
+        <v>234</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
@@ -10222,19 +10218,19 @@
         <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>83</v>
@@ -10242,13 +10238,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>445</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
@@ -10270,13 +10266,13 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10344,19 +10340,19 @@
         <v>106</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AO65" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10364,10 +10360,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10482,10 +10478,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10602,10 +10598,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10722,10 +10718,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10842,10 +10838,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10962,10 +10958,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11080,10 +11076,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11200,10 +11196,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11322,10 +11318,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11444,10 +11440,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B75" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11511,7 +11507,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11564,10 +11560,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11684,10 +11680,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11802,10 +11798,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11922,10 +11918,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12042,13 +12038,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>445</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -12070,13 +12066,13 @@
         <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -12144,19 +12140,19 @@
         <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AL80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>83</v>
@@ -12164,10 +12160,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12282,10 +12278,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12402,10 +12398,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12522,10 +12518,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12642,10 +12638,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12762,10 +12758,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12880,10 +12876,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13000,10 +12996,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13122,10 +13118,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13244,10 +13240,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13311,7 +13307,7 @@
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13364,10 +13360,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13484,10 +13480,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13602,10 +13598,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13722,10 +13718,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13842,10 +13838,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13868,19 +13864,19 @@
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13929,7 +13925,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13938,7 +13934,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13947,27 +13943,27 @@
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AN95" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AO95" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP95" t="s" s="2">
-        <v>519</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13993,16 +13989,16 @@
         <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="N96" t="s" s="2">
+      <c r="O96" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14030,37 +14026,37 @@
         <v>341</v>
       </c>
       <c r="Y96" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Z96" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="Z96" t="s" s="2">
+      <c r="AA96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI96" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14075,7 +14071,7 @@
         <v>137</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14086,14 +14082,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14115,16 +14111,16 @@
         <v>192</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="N97" t="s" s="2">
+      <c r="O97" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14152,11 +14148,11 @@
         <v>341</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Z97" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Z97" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
       </c>
@@ -14173,7 +14169,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14191,27 +14187,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AN97" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AO97" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP97" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14234,19 +14230,19 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14295,7 +14291,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14316,10 +14312,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14330,10 +14326,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14359,13 +14355,13 @@
         <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14394,11 +14390,11 @@
         <v>207</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Z99" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Z99" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
       </c>
@@ -14415,7 +14411,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14433,27 +14429,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AM99" t="s" s="2">
+      <c r="AN99" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AN99" t="s" s="2">
+      <c r="AO99" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP99" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>558</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14479,16 +14475,16 @@
         <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14516,11 +14512,11 @@
         <v>207</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>565</v>
-      </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
       </c>
@@ -14537,7 +14533,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14558,10 +14554,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14572,10 +14568,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14598,16 +14594,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14657,7 +14653,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14675,27 +14671,27 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="AM101" t="s" s="2">
+      <c r="AN101" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AN101" t="s" s="2">
+      <c r="AO101" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP101" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>576</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14718,16 +14714,16 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14777,7 +14773,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14795,27 +14791,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AN102" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AO102" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP102" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>585</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14838,19 +14834,19 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14899,7 +14895,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14911,19 +14907,19 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM103" t="s" s="2">
+      <c r="AN103" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14934,10 +14930,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15052,10 +15048,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15172,14 +15168,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15201,10 +15197,10 @@
         <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>143</v>
@@ -15259,7 +15255,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15294,10 +15290,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15320,13 +15316,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15377,7 +15373,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15386,7 +15382,7 @@
         <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15398,10 +15394,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15412,10 +15408,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15438,13 +15434,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15495,7 +15491,7 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15504,7 +15500,7 @@
         <v>94</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>106</v>
@@ -15516,10 +15512,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15530,10 +15526,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15559,16 +15555,16 @@
         <v>192</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15596,11 +15592,11 @@
         <v>118</v>
       </c>
       <c r="Y109" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="Z109" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="Z109" t="s" s="2">
-        <v>619</v>
-      </c>
       <c r="AA109" t="s" s="2">
         <v>83</v>
       </c>
@@ -15617,7 +15613,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15635,13 +15631,13 @@
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="AM109" t="s" s="2">
-        <v>621</v>
-      </c>
       <c r="AN109" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15652,10 +15648,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15681,16 +15677,16 @@
         <v>192</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
@@ -15718,11 +15714,11 @@
         <v>207</v>
       </c>
       <c r="Y110" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="Z110" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="Z110" t="s" s="2">
-        <v>628</v>
-      </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
       </c>
@@ -15739,7 +15735,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15757,13 +15753,13 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="AM110" t="s" s="2">
-        <v>621</v>
-      </c>
       <c r="AN110" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15774,10 +15770,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15800,17 +15796,17 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15859,7 +15855,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15883,7 +15879,7 @@
         <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15894,10 +15890,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15923,10 +15919,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15977,7 +15973,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15998,10 +15994,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16012,10 +16008,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16038,16 +16034,16 @@
         <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16097,7 +16093,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16118,10 +16114,10 @@
         <v>83</v>
       </c>
       <c r="AM113" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -16132,10 +16128,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16158,16 +16154,16 @@
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16217,7 +16213,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16238,10 +16234,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16252,10 +16248,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16278,19 +16274,19 @@
         <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16339,7 +16335,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16360,10 +16356,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16374,10 +16370,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16492,10 +16488,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16612,14 +16608,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16641,10 +16637,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16699,7 +16695,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16734,10 +16730,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16763,13 +16759,13 @@
         <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="M119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>206</v>
@@ -16821,7 +16817,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>94</v>
@@ -16839,7 +16835,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>212</v>
@@ -16856,10 +16852,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16882,19 +16878,19 @@
         <v>95</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M120" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>669</v>
-      </c>
       <c r="O120" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16943,7 +16939,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16961,27 +16957,27 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN120" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AN120" t="s" s="2">
+      <c r="AO120" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP120" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>519</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17007,16 +17003,16 @@
         <v>192</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="N121" t="s" s="2">
-        <v>674</v>
-      </c>
       <c r="O121" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -17044,37 +17040,37 @@
         <v>341</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Z121" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="Z121" t="s" s="2">
+      <c r="AA121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI121" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>106</v>
@@ -17089,7 +17085,7 @@
         <v>137</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17100,14 +17096,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17129,16 +17125,16 @@
         <v>192</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17166,11 +17162,11 @@
         <v>341</v>
       </c>
       <c r="Y122" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Z122" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Z122" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
       </c>
@@ -17187,7 +17183,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17205,27 +17201,27 @@
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AM122" t="s" s="2">
+      <c r="AN122" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="AN122" t="s" s="2">
+      <c r="AO122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP122" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP122" t="s" s="2">
-        <v>540</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17251,16 +17247,16 @@
         <v>84</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M123" t="s" s="2">
-        <v>678</v>
-      </c>
       <c r="N123" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="O123" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17309,7 +17305,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17330,10 +17326,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AN123" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="679">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:28:06+00:00</t>
+    <t>2025-06-20T17:36:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1422,6 +1422,10 @@
   </si>
   <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:identifier.system}
+</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -2504,7 +2508,7 @@
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="71.828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="21.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="50.453125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
@@ -10193,7 +10197,7 @@
         <v>83</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>234</v>
+        <v>450</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
@@ -10218,19 +10222,19 @@
         <v>106</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>83</v>
@@ -10238,13 +10242,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>445</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>83</v>
@@ -10266,13 +10270,13 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10340,19 +10344,19 @@
         <v>106</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10360,10 +10364,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10478,10 +10482,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10598,10 +10602,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10718,10 +10722,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10838,10 +10842,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10958,10 +10962,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11076,10 +11080,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11196,10 +11200,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11318,10 +11322,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11440,10 +11444,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11507,7 +11511,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -11560,10 +11564,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11680,10 +11684,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11798,10 +11802,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11918,10 +11922,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12038,13 +12042,13 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>445</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>83</v>
@@ -12066,13 +12070,13 @@
         <v>95</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -12140,19 +12144,19 @@
         <v>106</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>83</v>
@@ -12160,10 +12164,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12278,10 +12282,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12398,10 +12402,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12518,10 +12522,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12638,10 +12642,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12758,10 +12762,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12876,10 +12880,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12996,10 +13000,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13118,10 +13122,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13240,10 +13244,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13307,7 +13311,7 @@
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>83</v>
@@ -13360,10 +13364,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13480,10 +13484,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13598,10 +13602,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13718,10 +13722,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13838,10 +13842,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13864,19 +13868,19 @@
         <v>95</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>83</v>
@@ -13925,7 +13929,7 @@
         <v>83</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13934,7 +13938,7 @@
         <v>94</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>106</v>
@@ -13943,27 +13947,27 @@
         <v>83</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13989,16 +13993,16 @@
         <v>192</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>83</v>
@@ -14026,10 +14030,10 @@
         <v>341</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -14047,7 +14051,7 @@
         <v>83</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -14056,7 +14060,7 @@
         <v>94</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>106</v>
@@ -14071,7 +14075,7 @@
         <v>137</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>83</v>
@@ -14082,14 +14086,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -14111,16 +14115,16 @@
         <v>192</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>83</v>
@@ -14148,10 +14152,10 @@
         <v>341</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>83</v>
@@ -14169,7 +14173,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -14187,27 +14191,27 @@
         <v>83</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14230,19 +14234,19 @@
         <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>83</v>
@@ -14291,7 +14295,7 @@
         <v>83</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -14312,10 +14316,10 @@
         <v>83</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>83</v>
@@ -14326,10 +14330,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14355,13 +14359,13 @@
         <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14390,10 +14394,10 @@
         <v>207</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -14411,7 +14415,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -14429,27 +14433,27 @@
         <v>83</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14475,16 +14479,16 @@
         <v>192</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14512,10 +14516,10 @@
         <v>207</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14533,7 +14537,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14554,10 +14558,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -14568,10 +14572,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14594,16 +14598,16 @@
         <v>83</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14653,7 +14657,7 @@
         <v>83</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14671,27 +14675,27 @@
         <v>83</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14714,16 +14718,16 @@
         <v>83</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14773,7 +14777,7 @@
         <v>83</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14791,27 +14795,27 @@
         <v>83</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14834,19 +14838,19 @@
         <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>83</v>
@@ -14895,7 +14899,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14907,7 +14911,7 @@
         <v>83</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>83</v>
@@ -14916,10 +14920,10 @@
         <v>83</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>83</v>
@@ -14930,10 +14934,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15048,10 +15052,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15168,14 +15172,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15197,10 +15201,10 @@
         <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>143</v>
@@ -15255,7 +15259,7 @@
         <v>83</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>81</v>
@@ -15290,10 +15294,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15316,13 +15320,13 @@
         <v>83</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15373,7 +15377,7 @@
         <v>83</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -15382,7 +15386,7 @@
         <v>94</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>106</v>
@@ -15394,10 +15398,10 @@
         <v>83</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>83</v>
@@ -15408,10 +15412,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15434,13 +15438,13 @@
         <v>83</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15491,7 +15495,7 @@
         <v>83</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -15500,7 +15504,7 @@
         <v>94</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>106</v>
@@ -15512,10 +15516,10 @@
         <v>83</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>83</v>
@@ -15526,10 +15530,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15555,16 +15559,16 @@
         <v>192</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>83</v>
@@ -15592,10 +15596,10 @@
         <v>118</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>83</v>
@@ -15613,7 +15617,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15631,13 +15635,13 @@
         <v>83</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>83</v>
@@ -15648,10 +15652,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15677,16 +15681,16 @@
         <v>192</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>83</v>
@@ -15714,10 +15718,10 @@
         <v>207</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>83</v>
@@ -15735,7 +15739,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15753,13 +15757,13 @@
         <v>83</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>83</v>
@@ -15770,10 +15774,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15796,17 +15800,17 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>83</v>
@@ -15855,7 +15859,7 @@
         <v>83</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15879,7 +15883,7 @@
         <v>83</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>83</v>
@@ -15890,10 +15894,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15919,10 +15923,10 @@
         <v>217</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15973,7 +15977,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15994,10 +15998,10 @@
         <v>83</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>83</v>
@@ -16008,10 +16012,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16034,16 +16038,16 @@
         <v>95</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16093,7 +16097,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16114,10 +16118,10 @@
         <v>83</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>83</v>
@@ -16128,10 +16132,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16154,16 +16158,16 @@
         <v>95</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16213,7 +16217,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16234,10 +16238,10 @@
         <v>83</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16248,10 +16252,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16274,19 +16278,19 @@
         <v>95</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>83</v>
@@ -16335,7 +16339,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -16356,10 +16360,10 @@
         <v>83</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>83</v>
@@ -16370,10 +16374,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16488,10 +16492,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16608,14 +16612,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16637,10 +16641,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16695,7 +16699,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16730,10 +16734,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16759,13 +16763,13 @@
         <v>192</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>206</v>
@@ -16817,7 +16821,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>94</v>
@@ -16835,7 +16839,7 @@
         <v>83</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>212</v>
@@ -16852,10 +16856,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16878,19 +16882,19 @@
         <v>95</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -16939,7 +16943,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -16957,27 +16961,27 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17003,16 +17007,16 @@
         <v>192</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -17040,10 +17044,10 @@
         <v>341</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
@@ -17061,7 +17065,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17070,7 +17074,7 @@
         <v>94</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>106</v>
@@ -17085,7 +17089,7 @@
         <v>137</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>83</v>
@@ -17096,14 +17100,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -17125,16 +17129,16 @@
         <v>192</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17162,10 +17166,10 @@
         <v>341</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -17183,7 +17187,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17201,27 +17205,27 @@
         <v>83</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17247,16 +17251,16 @@
         <v>84</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>83</v>
@@ -17305,7 +17309,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17326,10 +17330,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-20T17:36:29+00:00</t>
+    <t>2025-06-23T08:01:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T08:01:32+00:00</t>
+    <t>2025-10-30T12:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -386,7 +386,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -522,7 +522,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -668,7 +668,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1091,7 +1091,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1169,7 +1169,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1257,7 +1257,7 @@
     <t>Observation.subject.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1297,7 +1297,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1411,7 +1411,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1671,7 +1671,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1703,7 +1703,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1759,7 +1759,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1792,7 +1792,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1804,7 +1804,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1832,7 +1832,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1912,7 +1912,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1962,7 +1962,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1995,7 +1995,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -2032,7 +2032,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2054,7 +2054,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2491,7 +2491,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5784,7 +5784,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>289</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>319</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>345</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>371</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>381</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>404</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>455</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>468</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>478</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>481</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>487</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>489</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>498</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>503</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>505</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>508</v>
       </c>
@@ -17344,12 +17344,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP123">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T12:10:10+00:00</t>
+    <t>2025-10-30T21:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T21:18:07+00:00</t>
+    <t>2025-10-31T07:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T07:41:35+00:00</t>
+    <t>2025-10-31T08:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
+++ b/currentbuild/StructureDefinition-vkp-Observation-NEWS2score.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.8</t>
+    <t>0.3.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T08:30:38+00:00</t>
+    <t>2025-11-05T11:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
